--- a/EDA_Process/C_Morlet_SVM/SVM_MKL_Half_and_Half.xlsx
+++ b/EDA_Process/C_Morlet_SVM/SVM_MKL_Half_and_Half.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Howard_Feng\NAO_Music_Autism_Project\EDA_Process\C_Morlet_SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651FDD3E-C6B8-4B38-81D6-1E2ED391B733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3287" yWindow="1547" windowWidth="9100" windowHeight="9466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="1545" windowWidth="9105" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="C=0.1" sheetId="1" r:id="rId1"/>
@@ -174,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,8 +217,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -493,21 +520,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.703125" customWidth="1"/>
-    <col min="3" max="3" width="19.64453125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -518,12 +545,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -545,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -556,7 +583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -567,7 +594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -578,7 +605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -589,7 +616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -600,7 +627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -611,7 +638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -622,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -633,17 +660,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -654,7 +681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -665,7 +692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -676,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -687,7 +714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -698,7 +725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -709,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -720,7 +747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -731,12 +758,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -747,7 +774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -758,7 +785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -769,7 +796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -780,7 +807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -791,7 +818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -813,7 +840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -824,12 +851,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -840,7 +867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -851,7 +878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -862,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -873,7 +900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -884,7 +911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -906,7 +933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>

--- a/EDA_Process/C_Morlet_SVM/SVM_MKL_Half_and_Half.xlsx
+++ b/EDA_Process/C_Morlet_SVM/SVM_MKL_Half_and_Half.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Howard_Feng\NAO_Music_Autism_Project\EDA_Process\C_Morlet_SVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabWork\ThesisProject\Music_Autism_Robot\EDA_Process\C_Morlet_SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A014324-DFAF-431A-AFFF-B2E91B6818E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1545" windowWidth="9105" windowHeight="9465"/>
+    <workbookView xWindow="8553" yWindow="0" windowWidth="9100" windowHeight="9467" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C=0.1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
   <si>
     <t>SVMAccuracy : 52.9412</t>
   </si>
@@ -168,12 +169,33 @@
   </si>
   <si>
     <t>SVMAccuracy : 41.1765</t>
+  </si>
+  <si>
+    <t>SVMAccuracy : 50.9804</t>
+  </si>
+  <si>
+    <t>71  29   0</t>
+  </si>
+  <si>
+    <t>53  35  12</t>
+  </si>
+  <si>
+    <t>41  12  47</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>SVMAccuracy : 79.4118</t>
+  </si>
+  <si>
+    <t>12  88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +264,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -520,21 +542,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.29296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.703125" customWidth="1"/>
+    <col min="3" max="3" width="20.87890625" customWidth="1"/>
+    <col min="4" max="4" width="19.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -544,13 +567,16 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +586,11 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,8 +600,11 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,8 +614,11 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,8 +628,11 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -604,8 +642,11 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -615,8 +656,11 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -626,8 +670,11 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -637,8 +684,11 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -648,8 +698,11 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -659,18 +712,21 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -680,8 +736,11 @@
       <c r="C16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -691,8 +750,11 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,8 +764,11 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -713,8 +778,11 @@
       <c r="C19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -724,8 +792,11 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -735,8 +806,11 @@
       <c r="C21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -746,8 +820,11 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -757,13 +834,16 @@
       <c r="C23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -773,8 +853,11 @@
       <c r="C26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -784,8 +867,11 @@
       <c r="C27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -795,8 +881,11 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -806,8 +895,11 @@
       <c r="C29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -817,8 +909,11 @@
       <c r="C30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,8 +923,11 @@
       <c r="C31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -839,8 +937,11 @@
       <c r="C32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -850,13 +951,16 @@
       <c r="C33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -866,8 +970,11 @@
       <c r="C36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -877,8 +984,11 @@
       <c r="C37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -888,8 +998,11 @@
       <c r="C38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -899,8 +1012,11 @@
       <c r="C39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -910,8 +1026,11 @@
       <c r="C40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +1040,11 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -932,8 +1054,11 @@
       <c r="C42" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -941,6 +1066,9 @@
         <v>30</v>
       </c>
       <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -948,7 +1076,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B30" twoDigitTextYear="1"/>
+    <ignoredError sqref="B30 D40" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>